--- a/SnP.xlsx
+++ b/SnP.xlsx
@@ -1,24 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f31e73b004c6ed25/Work/B737-800MPD/B737-800MPD/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_3F2521F453E3CC33612D4CA7E5EC07637970BEED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB8D3727-46E3-411E-AC97-0FC0258AA9F8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$718</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -8951,8 +8942,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9015,14 +9006,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -9069,7 +9052,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9101,27 +9084,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9153,24 +9118,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9346,16 +9293,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P718"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9402,7 +9347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9413,7 +9358,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9463,7 +9408,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9513,7 +9458,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -9563,7 +9508,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -9613,7 +9558,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -9663,7 +9608,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -9713,7 +9658,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -9763,7 +9708,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -9810,7 +9755,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -9857,7 +9802,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -9904,7 +9849,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -9954,7 +9899,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10004,7 +9949,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10054,7 +9999,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10104,7 +10049,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10154,7 +10099,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10204,7 +10149,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -10254,7 +10199,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -10304,7 +10249,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -10354,7 +10299,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -10404,7 +10349,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -10454,7 +10399,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -10501,7 +10446,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -10548,7 +10493,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -10595,7 +10540,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -10642,7 +10587,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -10689,7 +10634,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -10736,7 +10681,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -10783,7 +10728,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -10830,7 +10775,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -10877,7 +10822,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -10924,7 +10869,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -10971,7 +10916,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -11018,7 +10963,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -11065,7 +11010,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -11112,7 +11057,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -11159,7 +11104,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -11206,7 +11151,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -11253,7 +11198,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -11300,7 +11245,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -11347,7 +11292,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -11391,7 +11336,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -11438,7 +11383,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -11485,7 +11430,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -11532,7 +11477,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -11579,7 +11524,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -11626,7 +11571,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -11673,7 +11618,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -11720,7 +11665,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -11767,7 +11712,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -11814,7 +11759,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -11861,7 +11806,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -11908,7 +11853,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -11955,7 +11900,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -12002,7 +11947,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -12049,7 +11994,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -12096,7 +12041,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -12143,7 +12088,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -12190,7 +12135,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -12237,7 +12182,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -12284,7 +12229,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -12331,7 +12276,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -12378,7 +12323,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -12425,7 +12370,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -12472,7 +12417,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -12519,7 +12464,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -12566,7 +12511,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -12613,7 +12558,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -12657,7 +12602,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -12701,7 +12646,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -12712,7 +12657,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -12762,7 +12707,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -12812,7 +12757,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -12859,7 +12804,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -12906,7 +12851,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -12953,7 +12898,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -13003,7 +12948,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -13050,7 +12995,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -13097,7 +13042,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -13144,7 +13089,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -13191,7 +13136,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -13241,7 +13186,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -13291,7 +13236,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -13341,7 +13286,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -13391,7 +13336,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -13438,7 +13383,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -13488,7 +13433,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -13538,7 +13483,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -13585,7 +13530,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -13635,7 +13580,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -13685,7 +13630,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -13735,7 +13680,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -13785,7 +13730,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -13796,7 +13741,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -13843,7 +13788,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -13890,7 +13835,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -13937,7 +13882,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -13984,7 +13929,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -14031,7 +13976,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -14078,7 +14023,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -14128,7 +14073,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -14178,7 +14123,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -14228,7 +14173,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -14275,7 +14220,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -14322,7 +14267,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -14372,7 +14317,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -14422,7 +14367,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -14433,7 +14378,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -14483,7 +14428,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -14533,7 +14478,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -14583,7 +14528,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -14633,7 +14578,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -14683,7 +14628,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -14733,7 +14678,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -14783,7 +14728,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -14833,7 +14778,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -14883,7 +14828,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -14933,7 +14878,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -14983,7 +14928,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -15033,7 +14978,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -15080,7 +15025,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -15130,7 +15075,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -15177,7 +15122,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -15227,7 +15172,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -15277,7 +15222,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -15327,7 +15272,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -15377,7 +15322,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -15388,7 +15333,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -15435,7 +15380,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -15482,7 +15427,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -15529,7 +15474,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -15576,7 +15521,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -15623,7 +15568,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -15670,7 +15615,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -15717,7 +15662,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -15764,7 +15709,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -15811,7 +15756,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -15858,7 +15803,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -15905,7 +15850,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -15952,7 +15897,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -15999,7 +15944,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -16046,7 +15991,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -16093,7 +16038,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -16143,7 +16088,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -16190,7 +16135,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -16240,7 +16185,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -16290,7 +16235,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -16340,7 +16285,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -16387,7 +16332,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -16437,7 +16382,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -16487,7 +16432,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -16537,7 +16482,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -16587,7 +16532,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -16634,7 +16579,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -16681,7 +16626,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -16728,7 +16673,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -16775,7 +16720,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -16822,7 +16767,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -16869,7 +16814,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -16916,7 +16861,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -16963,7 +16908,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -17010,7 +16955,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -17057,7 +17002,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -17104,7 +17049,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -17151,7 +17096,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -17198,7 +17143,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -17245,7 +17190,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -17292,7 +17237,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -17339,7 +17284,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -17386,7 +17331,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -17433,7 +17378,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -17480,7 +17425,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -17527,7 +17472,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -17538,7 +17483,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -17585,7 +17530,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -17632,7 +17577,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -17679,7 +17624,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -17729,7 +17674,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -17779,7 +17724,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -17826,7 +17771,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -17873,7 +17818,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -17920,7 +17865,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -17967,7 +17912,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -18017,7 +17962,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -18064,7 +18009,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -18111,7 +18056,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -18158,7 +18103,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -18208,7 +18153,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -18258,7 +18203,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -18308,7 +18253,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -18358,7 +18303,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -18405,7 +18350,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -18452,7 +18397,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -18502,7 +18447,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -18552,7 +18497,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -18602,7 +18547,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -18652,7 +18597,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -18702,7 +18647,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -18749,7 +18694,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -18796,7 +18741,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -18843,7 +18788,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -18893,7 +18838,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -18943,7 +18888,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -18993,7 +18938,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -19043,7 +18988,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -19093,7 +19038,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -19143,7 +19088,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -19193,7 +19138,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -19240,7 +19185,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -19287,7 +19232,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -19334,7 +19279,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -19381,7 +19326,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -19428,7 +19373,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -19475,7 +19420,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -19522,7 +19467,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -19569,7 +19514,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -19616,7 +19561,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -19660,7 +19605,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -19707,7 +19652,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -19751,7 +19696,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -19762,7 +19707,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -19812,7 +19757,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -19853,7 +19798,7 @@
         <v>1592</v>
       </c>
       <c r="N224">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O224" t="s">
         <v>1830</v>
@@ -19862,7 +19807,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -19912,7 +19857,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -19962,7 +19907,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -20009,7 +19954,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -20056,7 +20001,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -20103,7 +20048,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -20150,7 +20095,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -20200,7 +20145,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -20250,7 +20195,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -20297,7 +20242,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -20344,7 +20289,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -20391,7 +20336,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -20438,7 +20383,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -20488,7 +20433,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -20538,7 +20483,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -20585,7 +20530,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -20635,7 +20580,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -20685,7 +20630,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -20735,7 +20680,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -20785,7 +20730,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -20835,7 +20780,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -20885,7 +20830,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -20935,7 +20880,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -20985,7 +20930,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -21035,7 +20980,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -21082,7 +21027,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -21129,7 +21074,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -21179,7 +21124,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -21229,7 +21174,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -21276,7 +21221,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -21323,7 +21268,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -21370,7 +21315,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -21420,7 +21365,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -21470,7 +21415,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -21520,7 +21465,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -21570,7 +21515,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -21620,7 +21565,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -21670,7 +21615,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -21720,7 +21665,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -21767,7 +21712,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -21817,7 +21762,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -21864,7 +21809,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -21911,7 +21856,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -21961,7 +21906,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -22011,7 +21956,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -22061,7 +22006,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -22108,7 +22053,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -22158,7 +22103,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -22208,7 +22153,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -22258,7 +22203,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -22308,7 +22253,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -22358,7 +22303,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -22408,7 +22353,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -22458,7 +22403,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -22508,7 +22453,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -22558,7 +22503,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -22608,7 +22553,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -22658,7 +22603,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -22708,7 +22653,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -22758,7 +22703,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -22808,7 +22753,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -22855,7 +22800,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -22902,7 +22847,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -22952,7 +22897,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -23002,7 +22947,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -23049,7 +22994,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -23096,7 +23041,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -23143,7 +23088,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -23193,7 +23138,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -23243,7 +23188,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -23293,7 +23238,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -23343,7 +23288,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -23393,7 +23338,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -23443,7 +23388,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -23493,7 +23438,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -23543,7 +23488,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -23590,7 +23535,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -23637,7 +23582,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -23684,7 +23629,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -23731,7 +23676,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -23781,7 +23726,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -23831,7 +23776,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -23878,7 +23823,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -23928,7 +23873,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -23978,7 +23923,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -24028,7 +23973,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -24078,7 +24023,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -24128,7 +24073,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -24178,7 +24123,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -24228,7 +24173,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -24278,7 +24223,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -24328,7 +24273,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -24378,7 +24323,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -24428,7 +24373,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -24478,7 +24423,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -24528,7 +24473,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -24575,7 +24520,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -24622,7 +24567,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -24669,7 +24614,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -24716,7 +24661,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -24766,7 +24711,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -24816,7 +24761,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -24866,7 +24811,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -24916,7 +24861,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -24963,7 +24908,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -25013,7 +24958,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -25063,7 +25008,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -25113,7 +25058,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -25163,7 +25108,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -25213,7 +25158,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -25260,7 +25205,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -25310,7 +25255,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -25357,7 +25302,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -25404,7 +25349,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -25451,7 +25396,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -25498,7 +25443,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -25545,7 +25490,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -25592,7 +25537,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -25642,7 +25587,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -25692,7 +25637,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -25742,7 +25687,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -25792,7 +25737,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -25842,7 +25787,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -25892,7 +25837,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -25939,7 +25884,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -25989,7 +25934,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -26039,7 +25984,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -26089,7 +26034,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -26139,7 +26084,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -26189,7 +26134,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -26230,7 +26175,7 @@
         <v>1592</v>
       </c>
       <c r="N354">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="O354" t="s">
         <v>1960</v>
@@ -26239,7 +26184,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -26289,7 +26234,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -26300,7 +26245,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -26347,7 +26292,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -26394,7 +26339,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -26441,7 +26386,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -26488,7 +26433,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -26535,7 +26480,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -26582,7 +26527,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -26629,7 +26574,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -26676,7 +26621,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -26723,7 +26668,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -26773,7 +26718,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -26823,7 +26768,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -26870,7 +26815,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -26917,7 +26862,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -26967,7 +26912,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -27014,7 +26959,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -27058,7 +27003,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -27102,7 +27047,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -27152,7 +27097,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -27199,7 +27144,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -27246,7 +27191,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -27296,7 +27241,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -27343,7 +27288,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -27393,7 +27338,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -27443,7 +27388,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -27493,7 +27438,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -27543,7 +27488,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -27590,7 +27535,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -27637,7 +27582,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -27684,7 +27629,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -27728,7 +27673,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -27778,7 +27723,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -27828,7 +27773,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -27878,7 +27823,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -27928,7 +27873,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -27978,7 +27923,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -28028,7 +27973,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -28075,7 +28020,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -28086,7 +28031,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -28133,7 +28078,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -28180,7 +28125,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -28227,7 +28172,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -28274,7 +28219,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -28321,7 +28266,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -28371,7 +28316,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -28421,7 +28366,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -28471,7 +28416,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -28521,7 +28466,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -28568,7 +28513,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -28615,7 +28560,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -28662,7 +28607,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -28709,7 +28654,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -28756,7 +28701,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -28803,7 +28748,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -28850,7 +28795,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -28897,7 +28842,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -28944,7 +28889,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -28991,7 +28936,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -29038,7 +28983,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -29085,7 +29030,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -29132,7 +29077,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -29179,7 +29124,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -29226,7 +29171,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -29273,7 +29218,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -29320,7 +29265,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -29367,7 +29312,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -29414,7 +29359,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -29461,7 +29406,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -29508,7 +29453,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -29519,7 +29464,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -29566,7 +29511,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -29577,7 +29522,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -29624,7 +29569,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -29674,7 +29619,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -29721,7 +29666,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -29768,7 +29713,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -29815,7 +29760,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -29862,7 +29807,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -29912,7 +29857,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -29962,7 +29907,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -30009,7 +29954,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -30056,7 +30001,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -30067,7 +30012,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -30114,7 +30059,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -30161,7 +30106,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -30208,7 +30153,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -30255,7 +30200,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -30305,7 +30250,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -30355,7 +30300,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -30405,7 +30350,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -30455,7 +30400,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -30505,7 +30450,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -30555,7 +30500,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:16">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -30602,7 +30547,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:16">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -30649,7 +30594,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:16">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -30696,7 +30641,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:16">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -30743,7 +30688,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -30793,7 +30738,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:16">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -30843,7 +30788,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:16">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -30890,7 +30835,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:16">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -30937,7 +30882,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:16">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -30987,7 +30932,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:16">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -31037,7 +30982,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:16">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -31087,7 +31032,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:16">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -31134,7 +31079,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -31184,7 +31129,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:16">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -31234,7 +31179,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:16">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -31281,7 +31226,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -31328,7 +31273,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -31375,7 +31320,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -31422,7 +31367,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:16">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -31469,7 +31414,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:16">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -31516,7 +31461,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -31566,7 +31511,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:16">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -31613,7 +31558,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:16">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -31651,7 +31596,7 @@
         <v>1592</v>
       </c>
       <c r="N471">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O471" t="s">
         <v>2077</v>
@@ -31660,7 +31605,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:16">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -31698,7 +31643,7 @@
         <v>1592</v>
       </c>
       <c r="N472">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O472" t="s">
         <v>2078</v>
@@ -31707,7 +31652,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="473" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:16">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -31754,7 +31699,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="474" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:16">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -31801,7 +31746,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="475" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:16">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -31848,7 +31793,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="476" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:16">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -31898,7 +31843,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="477" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:16">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -31945,7 +31890,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="478" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:16">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -31992,7 +31937,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="479" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:16">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -32039,7 +31984,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="480" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:16">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -32089,7 +32034,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:16">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -32139,7 +32084,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:16">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -32189,7 +32134,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="483" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:16">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -32239,7 +32184,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="484" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:16">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -32289,7 +32234,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:16">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -32300,7 +32245,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="486" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:16">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -32347,7 +32292,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:16">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -32394,7 +32339,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="488" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:16">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -32441,7 +32386,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:16">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -32488,7 +32433,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:16">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -32535,7 +32480,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="491" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:16">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -32582,7 +32527,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="492" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:16">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -32629,7 +32574,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="493" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:16">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -32676,7 +32621,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="494" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:16">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -32720,7 +32665,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:16">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -32731,7 +32676,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:16">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -32778,7 +32723,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:16">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -32825,7 +32770,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:16">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -32872,7 +32817,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:16">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -32919,7 +32864,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:16">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -32966,7 +32911,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:16">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -33013,7 +32958,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:16">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -33063,7 +33008,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:16">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -33113,7 +33058,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:16">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -33160,7 +33105,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:16">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -33204,7 +33149,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="506" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:16">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -33254,7 +33199,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:16">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -33301,7 +33246,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="508" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:16">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -33312,7 +33257,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="509" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:16">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -33362,7 +33307,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="510" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:16">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -33409,7 +33354,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="511" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:16">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -33456,7 +33401,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="512" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:16">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -33503,7 +33448,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="513" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:16">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -33550,7 +33495,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="514" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:16">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -33600,7 +33545,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="515" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:16">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -33647,7 +33592,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="516" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:16">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -33697,7 +33642,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="517" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:16">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -33744,7 +33689,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="518" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:16">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -33791,7 +33736,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="519" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:16">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -33838,7 +33783,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="520" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:16">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -33885,7 +33830,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="521" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:16">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -33932,7 +33877,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="522" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:16">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -33979,7 +33924,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="523" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:16">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -34026,7 +33971,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="524" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:16">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -34073,7 +34018,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="525" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:16">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -34120,7 +34065,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="526" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:16">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -34167,7 +34112,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="527" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:16">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -34214,7 +34159,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="528" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:16">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -34261,7 +34206,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="529" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:16">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -34308,7 +34253,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="530" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:16">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -34355,7 +34300,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="531" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:16">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -34402,7 +34347,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="532" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:16">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -34449,7 +34394,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="533" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:16">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -34460,7 +34405,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="534" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:16">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -34510,7 +34455,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="535" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:16">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -34560,7 +34505,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="536" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:16">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -34610,7 +34555,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="537" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:16">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -34660,7 +34605,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="538" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:16">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -34671,7 +34616,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:16">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -34718,7 +34663,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="540" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:16">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -34768,7 +34713,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="541" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:16">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -34818,7 +34763,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="542" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:16">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -34868,7 +34813,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="543" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:16">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -34915,7 +34860,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="544" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:16">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -34965,7 +34910,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="545" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:16">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -35015,7 +34960,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="546" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:16">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -35026,7 +34971,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="547" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:16">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -35076,7 +35021,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="548" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:16">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -35126,7 +35071,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="549" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:16">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -35176,7 +35121,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="550" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:16">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -35226,7 +35171,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="551" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:16">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -35276,7 +35221,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="552" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:16">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -35323,7 +35268,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="553" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:16">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -35370,7 +35315,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="554" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:16">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -35420,7 +35365,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="555" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:16">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -35431,7 +35376,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="556" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:16">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -35481,7 +35426,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="557" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:16">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -35531,7 +35476,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="558" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:16">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -35581,7 +35526,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="559" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:16">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -35631,7 +35576,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="560" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:16">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -35681,7 +35626,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="561" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:16">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -35731,7 +35676,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="562" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:16">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -35781,7 +35726,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="563" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:16">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -35831,7 +35776,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="564" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:16">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -35881,7 +35826,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="565" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:16">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -35928,7 +35873,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="566" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:16">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -35978,7 +35923,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="567" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:16">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -36028,7 +35973,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="568" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:16">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -36078,7 +36023,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:16">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -36125,7 +36070,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:16">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -36136,7 +36081,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="571" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:16">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -36186,7 +36131,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="572" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:16">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -36236,7 +36181,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="573" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:16">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -36286,7 +36231,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="574" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:16">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -36336,7 +36281,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="575" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:16">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -36386,7 +36331,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="576" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:16">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -36436,7 +36381,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="577" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:16">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -36486,7 +36431,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="578" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:16">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -36536,7 +36481,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="579" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:16">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -36586,7 +36531,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="580" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:16">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -36636,7 +36581,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="581" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:16">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -36686,7 +36631,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="582" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:16">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -36736,7 +36681,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="583" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:16">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -36786,7 +36731,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="584" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:16">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -36836,7 +36781,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="585" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:16">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -36886,7 +36831,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="586" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:16">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -36936,7 +36881,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="587" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:16">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -36986,7 +36931,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="588" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:16">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -37036,7 +36981,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="589" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:16">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -37086,7 +37031,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="590" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:16">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -37136,7 +37081,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="591" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:16">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -37186,7 +37131,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="592" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:16">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -37236,7 +37181,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="593" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:16">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -37286,7 +37231,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="594" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:16">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -37336,7 +37281,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="595" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:16">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -37386,7 +37331,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="596" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:16">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -37433,7 +37378,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="597" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:16">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -37483,7 +37428,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="598" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:16">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -37530,7 +37475,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="599" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:16">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -37580,7 +37525,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="600" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:16">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -37621,7 +37566,7 @@
         <v>1592</v>
       </c>
       <c r="N600">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="O600" t="s">
         <v>2203</v>
@@ -37630,7 +37575,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="601" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:16">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -37680,7 +37625,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="602" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:16">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -37727,7 +37672,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="603" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:16">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -37777,7 +37722,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="604" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:16">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -37824,7 +37769,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="605" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:16">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -37874,7 +37819,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="606" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:16">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -37924,7 +37869,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="607" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:16">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -37971,7 +37916,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="608" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:16">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -38018,7 +37963,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="609" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:16">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -38065,7 +38010,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="610" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:16">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -38112,7 +38057,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="611" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:16">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -38159,7 +38104,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="612" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:16">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -38206,7 +38151,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="613" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:16">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -38253,7 +38198,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="614" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:16">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -38264,7 +38209,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="615" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:16">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -38314,7 +38259,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="616" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:16">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -38364,7 +38309,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="617" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:16">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -38375,7 +38320,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="618" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:16">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -38422,7 +38367,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="619" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:16">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -38469,7 +38414,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="620" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:16">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -38516,7 +38461,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="621" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:16">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -38563,7 +38508,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="622" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:16">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -38610,7 +38555,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="623" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:16">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -38657,7 +38602,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="624" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:16">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -38668,7 +38613,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="625" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:16">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -38715,7 +38660,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="626" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:16">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -38762,7 +38707,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="627" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:16">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -38812,7 +38757,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="628" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:16">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -38862,7 +38807,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="629" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:16">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -38873,7 +38818,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="630" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:16">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -38920,7 +38865,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="631" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:16">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -38967,7 +38912,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="632" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:16">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -39014,7 +38959,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="633" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:16">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -39061,7 +39006,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="634" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:16">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -39108,7 +39053,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="635" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:16">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -39155,7 +39100,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="636" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:16">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -39202,7 +39147,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="637" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:16">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -39249,7 +39194,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="638" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:16">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -39296,7 +39241,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="639" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:16">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -39343,7 +39288,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="640" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:16">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -39393,7 +39338,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="641" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:16">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -39443,7 +39388,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="642" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:16">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -39493,7 +39438,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="643" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:16">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -39543,7 +39488,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="644" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:16">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -39593,7 +39538,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="645" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:16">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -39643,7 +39588,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="646" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:16">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -39693,7 +39638,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="647" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:16">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -39743,7 +39688,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="648" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:16">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -39793,7 +39738,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="649" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:16">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -39843,7 +39788,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="650" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:16">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -39893,7 +39838,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="651" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:16">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -39943,7 +39888,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="652" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:16">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -39993,7 +39938,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="653" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:16">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -40043,7 +39988,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="654" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:16">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -40093,7 +40038,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="655" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:16">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -40143,7 +40088,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="656" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:16">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -40193,7 +40138,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="657" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:16">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -40243,7 +40188,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="658" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:16">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -40293,7 +40238,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="659" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:16">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -40343,7 +40288,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="660" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:16">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -40393,7 +40338,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="661" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:16">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -40443,7 +40388,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="662" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:16">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -40493,7 +40438,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="663" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:16">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -40543,7 +40488,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="664" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:16">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -40593,7 +40538,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="665" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:16">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -40643,7 +40588,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="666" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:16">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -40693,7 +40638,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="667" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:16">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -40743,7 +40688,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="668" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:16">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -40793,7 +40738,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="669" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:16">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -40843,7 +40788,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="670" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:16">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -40893,7 +40838,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="671" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:16">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -40943,7 +40888,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="672" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:16">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -40993,7 +40938,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="673" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:16">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -41043,7 +40988,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="674" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:16">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -41093,7 +41038,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="675" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:16">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -41143,7 +41088,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="676" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:16">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -41193,7 +41138,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="677" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:16">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -41243,7 +41188,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="678" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:16">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -41293,7 +41238,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="679" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:16">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -41343,7 +41288,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="680" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:16">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -41393,7 +41338,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="681" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:16">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -41443,7 +41388,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="682" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:16">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -41454,7 +41399,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="683" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:16">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -41504,7 +41449,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="684" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:16">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -41554,7 +41499,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="685" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:16">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -41601,7 +41546,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="686" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:16">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -41648,7 +41593,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="687" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:16">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -41695,7 +41640,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="688" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:16">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -41742,7 +41687,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="689" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:16">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -41753,7 +41698,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="690" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:16">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -41803,7 +41748,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="691" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:16">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -41853,7 +41798,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="692" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:16">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -41864,7 +41809,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="693" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:16">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -41914,7 +41859,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="694" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:16">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -41964,7 +41909,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="695" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:16">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -42014,7 +41959,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="696" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:16">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -42064,7 +42009,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="697" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:16">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -42114,7 +42059,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="698" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:16">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -42164,7 +42109,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="699" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:16">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -42214,7 +42159,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="700" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:16">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -42264,7 +42209,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="701" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:16">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -42314,7 +42259,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="702" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:16">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -42364,7 +42309,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="703" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:16">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -42414,7 +42359,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="704" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:16">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -42464,7 +42409,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="705" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:16">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -42514,7 +42459,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="706" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:16">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -42564,7 +42509,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="707" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:16">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -42614,7 +42559,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="708" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:16">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -42664,7 +42609,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="709" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:16">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -42711,7 +42656,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="710" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:16">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -42758,7 +42703,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="711" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:16">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -42769,7 +42714,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="712" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:16">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -42819,7 +42764,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="713" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:16">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -42869,7 +42814,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="714" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:16">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -42919,7 +42864,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="715" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:16">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -42969,7 +42914,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="716" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:16">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -42980,7 +42925,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="717" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:16">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -43030,7 +42975,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="718" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:16">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -43081,7 +43026,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P718" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>